--- a/biology/Botanique/Imperata_cylindrica/Imperata_cylindrica.xlsx
+++ b/biology/Botanique/Imperata_cylindrica/Imperata_cylindrica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imperata cylindrica, impérate cylindrique, imperata cylindrique, paille de diss[3] ou paillote, est une espèce de plantes monocotylédones de la famille des Poaceae, originaire d'Asie du Sud-Est.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperata cylindrica, impérate cylindrique, imperata cylindrique, paille de diss ou paillote, est une espèce de plantes monocotylédones de la famille des Poaceae, originaire d'Asie du Sud-Est.
 C'est une plante herbacée vivace, rhizomateuse, monoïque, qui peut atteindre 1,5 m de haut. Présente dans toutes les régions tropicales et tempérées chaudes du monde, appréciée pour certaines utilisations, en particulier comme plante ornementale ou pour ses fibres, c'est avant tout une mauvaise herbe affectant de nombreuses cultures et considérée comme une plante envahissante dans plusieurs pays.
 Imperata cylindrica figure dans la liste des 100 espèces les plus envahissantes du monde établie par l'IUCN (Union internationale pour la conservation de la nature).
 </t>
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Imperata » est un hommage au pharmacien et naturaliste napolitain, Ferrante Imperato (1550-1625)[4].
-L'épithète spécifique « cylindrica » est un adjectif latin qui se réfère à la forme cylindrique des inflorescences[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Imperata » est un hommage au pharmacien et naturaliste napolitain, Ferrante Imperato (1550-1625).
+L'épithète spécifique « cylindrica » est un adjectif latin qui se réfère à la forme cylindrique des inflorescences.
 </t>
         </is>
       </c>
@@ -547,15 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Imperata cylindrica est une herbe haute pouvant aller jusqu'à 120 centimètres[3]. Elle est considérée comme une espèce pyrophile : même verte, elle s'enflamme facilement et provoque des feux sur les collines, provoquant l'éclosion de ses graines et l'élimination des concurrentes. Sa nature vivace, adaptée aux sécheresses et à la forte salinité des sols fait d'elle un colonisateur nuisible des autres espèces qu'elle tend à remplacer.
-Feuilles
-Ses feuilles, qui peuvent mesurer jusqu'à 1 mètre de long[3], sont d'un vert franc et frais. Elles naissent d'une base au duvet clair léger, de forme cylindrique (à l'origine de son nom latin). Elles sont marquées par une nervure médiane plus claire et présentent sur leurs faces cachées la particularité d'être d'un rouge sang aux accents andrinople, vermillon et corail.
-Fleurs
-Les fleurs sont des panicules fusiformes lâches et soyeuses qui se forment au bout des feuilles[3].
-La floraison a lieu de mai à juillet[6].
-Fruits
-Les fruits sont des caryopses ellipsoïdaux, pointus au sommet ; chaque plante peut en produire 3000[3].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperata cylindrica est une herbe haute pouvant aller jusqu'à 120 centimètres. Elle est considérée comme une espèce pyrophile : même verte, elle s'enflamme facilement et provoque des feux sur les collines, provoquant l'éclosion de ses graines et l'élimination des concurrentes. Sa nature vivace, adaptée aux sécheresses et à la forte salinité des sols fait d'elle un colonisateur nuisible des autres espèces qu'elle tend à remplacer.
 </t>
         </is>
       </c>
@@ -581,14 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imperata cylindrica est une espèce originaire d'Asie de l'Est et du Sud-Est, naturellement présente en Chine, au Japon, aux Philippines, en Indonésie, en Papouasie-Nouvelle-Guinée, mais aussi en Australie, en Afrique de l'Ouest et en Amérique du Nord. 
-Caractère envahissant
-L'espèce forme des prairies denses qui peuvent, en bordure de forêt, freiner l'extension des formations boisées[3].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles, qui peuvent mesurer jusqu'à 1 mètre de long, sont d'un vert franc et frais. Elles naissent d'une base au duvet clair léger, de forme cylindrique (à l'origine de son nom latin). Elles sont marquées par une nervure médiane plus claire et présentent sur leurs faces cachées la particularité d'être d'un rouge sang aux accents andrinople, vermillon et corail.
 </t>
         </is>
       </c>
@@ -614,21 +630,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horticulture
-Imperata cylindrica est cultivée comme ornementale et a quelques cultivars.
-Appelée Chigaya (チガヤ) au Japon, elle pare ses teintes pourpres d'une floraison argentée qui survient à la fin de l'été et au début de l'automne. Quand les vents chauds d'une fin de journée de septembre s'adoucissent, les épillets plumeux stériles s'éveillent dans un scintillement de lumière zénithale. Même si c'est sa couleur de sang qui l'a rendue célèbre, couleur rare qui évoquerait l'écrivain et dame de cour Murasaki Shikibu, c'est bien sa floraison nacrée qui révèle sa beauté presque céleste.
-La plantation se fait au printemps dans un sol riche, frais et bien drainé. Il faut choisir un emplacement au soleil ou à mi-ombre si l'on souhaite obtenir des couleurs prononcées.
-Utilisation médicinale
-Imperata cylindrica est antipyrétique, astringent, diurétique et hémostatique.En médecine Thaïe, la racine est employée dans le traitement des urines avec du sang, du phlegme ou des vomissements sanglants. Il est aussi employé dans le traitement des fièvres, infection du tract urinaire, des troubles et calculs rénaux, cystite et leucorrhée par une décoction de 40-50 grammes de racine fraîche. Boire 75 ml de la décoction 3 fois dans la journée, avant les repas [7].
-Construction
-En Nouvelle-Calédonie, cette espèce est utilisée pour la couverture des cases traditionnelles mélanésiennes[3].
-Autres utilisations
-Au Nord-Cameroun, les tiges d’Imperata cylindrica sont utilisées comme hampes de flèches par les populations Fali au nord du Mont Tinguelin[8].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont des panicules fusiformes lâches et soyeuses qui se forment au bout des feuilles.
+La floraison a lieu de mai à juillet.
 </t>
         </is>
       </c>
@@ -654,15 +668,309 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des caryopses ellipsoïdaux, pointus au sommet ; chaque plante peut en produire 3000.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperata cylindrica est une espèce originaire d'Asie de l'Est et du Sud-Est, naturellement présente en Chine, au Japon, aux Philippines, en Indonésie, en Papouasie-Nouvelle-Guinée, mais aussi en Australie, en Afrique de l'Ouest et en Amérique du Nord. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce forme des prairies denses qui peuvent, en bordure de forêt, freiner l'extension des formations boisées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Horticulture</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperata cylindrica est cultivée comme ornementale et a quelques cultivars.
+Appelée Chigaya (チガヤ) au Japon, elle pare ses teintes pourpres d'une floraison argentée qui survient à la fin de l'été et au début de l'automne. Quand les vents chauds d'une fin de journée de septembre s'adoucissent, les épillets plumeux stériles s'éveillent dans un scintillement de lumière zénithale. Même si c'est sa couleur de sang qui l'a rendue célèbre, couleur rare qui évoquerait l'écrivain et dame de cour Murasaki Shikibu, c'est bien sa floraison nacrée qui révèle sa beauté presque céleste.
+La plantation se fait au printemps dans un sol riche, frais et bien drainé. Il faut choisir un emplacement au soleil ou à mi-ombre si l'on souhaite obtenir des couleurs prononcées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Utilisation médicinale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperata cylindrica est antipyrétique, astringent, diurétique et hémostatique.En médecine Thaïe, la racine est employée dans le traitement des urines avec du sang, du phlegme ou des vomissements sanglants. Il est aussi employé dans le traitement des fièvres, infection du tract urinaire, des troubles et calculs rénaux, cystite et leucorrhée par une décoction de 40-50 grammes de racine fraîche. Boire 75 ml de la décoction 3 fois dans la journée, avant les repas .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, cette espèce est utilisée pour la couverture des cases traditionnelles mélanésiennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres utilisations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Nord-Cameroun, les tiges d’Imperata cylindrica sont utilisées comme hampes de flèches par les populations Fali au nord du Mont Tinguelin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imperata cylindrica a été décrite et publiée de façon valide en premier en 1759 par Linné sous le basionyme Lagurus cylindricus[9]. Le botaniste allemand, Ernst Adolf Räuschel, avait décrit l'espèce sous le nom d'Imperata cylindrica Raeusch., description publiée en 1797 dans Nomenclator Botanicus [ed. 3] 3: 10. 1797, et invalidée par la suite[10].  
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperata cylindrica a été décrite et publiée de façon valide en premier en 1759 par Linné sous le basionyme Lagurus cylindricus. Le botaniste allemand, Ernst Adolf Räuschel, avait décrit l'espèce sous le nom d'Imperata cylindrica Raeusch., description publiée en 1797 dans Nomenclator Botanicus [ed. 3] 3: 10. 1797, et invalidée par la suite.  
 Elle a été renommée en 1812 par le botaniste et entomologiste français, Palisot de Beauvois, qui lui attribua le nom accepté actuel, Imperata cylindrica (L.) P.Beauv..
-Synonymes
-Selon Catalogue of Life                                   (21 août 2016)[11] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 août 2016) :
 Arundo epigeios Forssk. ex Steud., pro syn.
 Calamagrostis lagurus Koeler, nom. superfl.
 Imperata allang Jungh.
@@ -708,8 +1016,43 @@
 Saccharum spicatum Burm. ex Kunth, pro syn.
 Saccharum spicatum J.Presl, nom. superfl.
 Saccharum thunbergii Retz.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (21 août 2016)[12] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperata_cylindrica</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (21 août 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Imperata cylindrica subsp. cylindrica
 sous-espèce Imperata cylindrica subsp. koenigii (Retz.) Tzvelev
 variété Imperata cylindrica var. africana (Andersson) C.E. Hubb.
